--- a/data/datamaster.xlsx
+++ b/data/datamaster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="STOCK" sheetId="1" state="visible" r:id="rId2"/>
@@ -199,7 +199,7 @@
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -226,6 +226,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -287,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,6 +316,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,16 +407,16 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="4" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="18" min="4" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,18 +502,18 @@
       <c r="D4" s="0" t="n">
         <v>678527.15</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="4" t="n">
         <v>204514.005</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="4" t="n">
         <v>107134.89</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="4" t="n">
         <v>392271.042</v>
       </c>
       <c r="H4" s="0" t="n">
-        <f aca="false">SUM(E4:G4)-D4</f>
-        <v>25392.787</v>
+        <f aca="false">SUM(E4:G4)</f>
+        <v>703919.937</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>101761.003</v>
@@ -545,18 +556,18 @@
       <c r="D5" s="0" t="n">
         <v>735941.778</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="4" t="n">
         <v>214514.005</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="4" t="n">
         <v>106134.89</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="4" t="n">
         <v>395271.042</v>
       </c>
       <c r="H5" s="0" t="n">
-        <f aca="false">SUM(E5:G5)-D5</f>
-        <v>-20021.841</v>
+        <f aca="false">SUM(E5:G5)</f>
+        <v>715919.937</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>15939.413</v>
@@ -609,8 +620,8 @@
         <v>399271.042</v>
       </c>
       <c r="H6" s="0" t="n">
-        <f aca="false">SUM(E6:G6)-D6</f>
-        <v>-1198.04599999997</v>
+        <f aca="false">SUM(E6:G6)</f>
+        <v>741919.937</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>9302.75</v>
@@ -663,8 +674,8 @@
         <v>411916.68</v>
       </c>
       <c r="H7" s="0" t="n">
-        <f aca="false">SUM(E7:G7)-D7</f>
-        <v>-1855.36499999999</v>
+        <f aca="false">SUM(E7:G7)</f>
+        <v>715908.603</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
@@ -720,8 +731,8 @@
         <v>383292.885</v>
       </c>
       <c r="H8" s="0" t="n">
-        <f aca="false">SUM(E8:G8)-D8</f>
-        <v>-2054.92099999997</v>
+        <f aca="false">SUM(E8:G8)</f>
+        <v>673604.148</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>9437.285</v>
@@ -767,18 +778,18 @@
       <c r="D9" s="0" t="n">
         <v>794734.834861</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>289836.951433</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>45432.95545</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>408211.677063</v>
       </c>
       <c r="H9" s="0" t="n">
-        <f aca="false">SUM(E9:G9)-D9</f>
-        <v>-51253.250915</v>
+        <f aca="false">SUM(E9:G9)</f>
+        <v>743481.583946</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>17300.237</v>
@@ -795,7 +806,7 @@
       <c r="M9" s="0" t="n">
         <v>2158.413272</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="6" t="n">
         <v>86282.8569104438</v>
       </c>
       <c r="O9" s="0" t="n">
@@ -814,7 +825,7 @@
         <v>762400.076091708</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -835,7 +846,6 @@
         <f aca="false">(SUM(G4:G9)/6)*1.05*20</f>
         <v>8365820.2882205</v>
       </c>
-      <c r="H10" s="2"/>
       <c r="I10" s="2" t="n">
         <f aca="false">I4*20</f>
         <v>2035220.06</v>
@@ -1244,7 +1254,7 @@
       <c r="I25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1317,11 +1327,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1519,7 +1529,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,8 +1691,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
